--- a/data_output/prism_passive/all_passive_out_elong_AT_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>23.666244480588929</v>
+        <v>23.666244518335589</v>
       </c>
       <c r="C2">
-        <v>13.754925913993773</v>
+        <v>13.754925909435919</v>
       </c>
       <c r="D2">
-        <v>26.713794236956069</v>
+        <v>26.713794273462135</v>
       </c>
       <c r="E2">
-        <v>11.373906571522205</v>
+        <v>11.373906610282347</v>
       </c>
       <c r="F2">
-        <v>62.567746427366387</v>
+        <v>62.567746443495736</v>
       </c>
       <c r="G2">
-        <v>3.7396604589330593</v>
+        <v>3.7396604652136318</v>
       </c>
       <c r="H2">
-        <v>3.7475524582049218</v>
+        <v>3.7475524964188054</v>
       </c>
       <c r="I2">
-        <v>3.0553326098671789</v>
+        <v>3.0553326339051168</v>
       </c>
       <c r="J2">
-        <v>8.9429283151849148</v>
+        <v>8.9429283008056331</v>
       </c>
       <c r="K2">
-        <v>5.9836347506474823</v>
+        <v>5.9836347603402515</v>
       </c>
       <c r="L2">
-        <v>3.3688627928833768</v>
+        <v>3.3688628500563595</v>
       </c>
       <c r="M2">
-        <v>7.3310272454807546</v>
+        <v>7.3310272878725726</v>
       </c>
       <c r="N2">
-        <v>1.2570875507230141</v>
+        <v>1.2570876098364892</v>
       </c>
       <c r="O2">
-        <v>-4.2598970781617567</v>
+        <v>-4.2598970428466103</v>
       </c>
       <c r="P2">
-        <v>14.450791332821318</v>
+        <v>14.450791318474565</v>
       </c>
       <c r="Q2">
-        <v>7.6908950391822941</v>
+        <v>7.690895051949262</v>
       </c>
       <c r="R2">
-        <v>4.3974152718439186</v>
+        <v>4.397415285381463</v>
       </c>
       <c r="S2">
-        <v>7.4957732207415546</v>
+        <v>7.4957732304134836</v>
       </c>
       <c r="T2">
-        <v>0.13515920172635276</v>
+        <v>0.13515923369281069</v>
       </c>
       <c r="U2">
-        <v>-12.05419148610828</v>
+        <v>-12.054191456907027</v>
       </c>
       <c r="V2">
-        <v>3.8682211373223438</v>
+        <v>3.8682211484824833</v>
       </c>
       <c r="W2">
-        <v>-0.48008503822130422</v>
+        <v>-0.48008501485087862</v>
       </c>
       <c r="X2">
-        <v>-3.0157122931479314</v>
+        <v>-3.0157122767063349</v>
       </c>
       <c r="Y2">
-        <v>-4.5062919988520065</v>
+        <v>-4.5062919598458109</v>
       </c>
       <c r="Z2">
-        <v>24.45455527387314</v>
+        <v>24.454555298210352</v>
       </c>
       <c r="AA2">
-        <v>-0.53801800750844819</v>
+        <v>-0.53801794371585032</v>
       </c>
       <c r="AB2">
-        <v>11.026883144171755</v>
+        <v>11.026883144284724</v>
       </c>
       <c r="AC2">
-        <v>1.2096289752868472</v>
+        <v>1.2096289802584792</v>
       </c>
       <c r="AD2">
-        <v>12.639445622792827</v>
+        <v>12.63944566860151</v>
       </c>
       <c r="AE2">
-        <v>29.158081722216771</v>
+        <v>29.15808172450182</v>
       </c>
       <c r="AF2">
-        <v>6.4988871390409884</v>
+        <v>6.4988871391014555</v>
       </c>
       <c r="AG2">
-        <v>2.1804553843143424</v>
+        <v>2.180455411532165</v>
       </c>
       <c r="AH2">
-        <v>5.1824612902043938</v>
+        <v>5.1824613021519994</v>
       </c>
       <c r="AI2">
-        <v>-1.030843934078348</v>
+        <v>-1.0308439253581554</v>
       </c>
       <c r="AJ2">
-        <v>7.9370728237465045</v>
+        <v>7.9370728516970956</v>
       </c>
       <c r="AK2">
-        <v>6.5501456693960165</v>
+        <v>6.5501457206925124</v>
       </c>
       <c r="AL2">
-        <v>1.1483899550648005</v>
+        <v>1.1483899932146784</v>
       </c>
       <c r="AM2">
-        <v>2.6697237495144535</v>
+        <v>2.6697238057405528</v>
       </c>
       <c r="AN2">
-        <v>1.2431751445939554</v>
+        <v>1.2431751824331556</v>
       </c>
       <c r="AO2">
-        <v>4.7630910933594706</v>
+        <v>4.7630911291719542</v>
       </c>
       <c r="AP2">
-        <v>1.5264489033982862</v>
+        <v>1.5264489192239736</v>
       </c>
       <c r="AQ2">
-        <v>1.2655351145228693</v>
+        <v>1.2655351508360368</v>
       </c>
       <c r="AR2">
-        <v>3.8483074595205125</v>
+        <v>3.8483074715271925</v>
       </c>
       <c r="AS2">
-        <v>-4.0984592527667019</v>
+        <v>-4.0984592347393374</v>
       </c>
       <c r="AT2">
-        <v>-2.7194469135775137</v>
+        <v>-2.7194468986156224</v>
       </c>
       <c r="AU2">
-        <v>-3.6293094963827812</v>
+        <v>-3.6293094871468412</v>
       </c>
       <c r="AV2">
-        <v>7.0502637512372104</v>
+        <v>7.0502637668079444</v>
       </c>
       <c r="AW2">
-        <v>-0.70917022916516714</v>
+        <v>-0.70917022162764454</v>
       </c>
       <c r="AX2">
-        <v>1.2723079848078456</v>
+        <v>1.2723080127374971</v>
       </c>
       <c r="AY2">
-        <v>-6.431592420147517</v>
+        <v>-6.4315924051545323</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18.510446543156078</v>
+        <v>18.510446526792059</v>
       </c>
       <c r="C3">
-        <v>8.2322454730064507</v>
+        <v>8.2322455054952499</v>
       </c>
       <c r="D3">
-        <v>-5.8711297858057279</v>
+        <v>-5.8711297697243836</v>
       </c>
       <c r="E3">
-        <v>12.539660381943108</v>
+        <v>12.539660391281757</v>
       </c>
       <c r="F3">
-        <v>12.062600098180276</v>
+        <v>12.062600113488372</v>
       </c>
       <c r="G3">
-        <v>1.7914802024351317</v>
+        <v>1.7914802216237788</v>
       </c>
       <c r="H3">
-        <v>3.3626152495282611</v>
+        <v>3.3626152877599367</v>
       </c>
       <c r="I3">
-        <v>2.1380019024784076</v>
+        <v>2.1380019167812492</v>
       </c>
       <c r="J3">
-        <v>8.5319521277816932</v>
+        <v>8.5319521343598268</v>
       </c>
       <c r="K3">
-        <v>-8.8760622782551337</v>
+        <v>-8.8760622425083255</v>
       </c>
       <c r="L3">
-        <v>-23.489117544561978</v>
+        <v>-23.48911749890371</v>
       </c>
       <c r="M3">
-        <v>9.1950069994437129</v>
+        <v>9.1951533758278927</v>
       </c>
       <c r="N3">
-        <v>4.1701236360078511</v>
+        <v>4.170123674849286</v>
       </c>
       <c r="O3">
-        <v>3.6266888498960697</v>
+        <v>3.6266888763321674</v>
       </c>
       <c r="P3">
-        <v>1.3736150287895796</v>
+        <v>1.3736150640691562</v>
       </c>
       <c r="Q3">
-        <v>7.8635260885906675</v>
+        <v>7.8635261103209189</v>
       </c>
       <c r="R3">
-        <v>5.7215628198133501</v>
+        <v>5.7215628364976894</v>
       </c>
       <c r="S3">
-        <v>6.7781488883723</v>
+        <v>6.7781489043690613</v>
       </c>
       <c r="T3">
-        <v>4.8674758398926485</v>
+        <v>4.8674758758270258</v>
       </c>
       <c r="U3">
-        <v>2.8048651143348025</v>
+        <v>2.8048651418220771</v>
       </c>
       <c r="V3">
-        <v>-17.37881321839825</v>
+        <v>-17.378813198965467</v>
       </c>
       <c r="W3">
-        <v>-0.79355175620375462</v>
+        <v>-0.79355167540528271</v>
       </c>
       <c r="X3">
-        <v>4.0557553919684288</v>
+        <v>4.0557554502886113</v>
       </c>
       <c r="Y3">
-        <v>3.2019931000003439</v>
+        <v>3.2019931175709786</v>
       </c>
       <c r="Z3">
-        <v>1.5653463937865695</v>
+        <v>1.5653464126143888</v>
       </c>
       <c r="AA3">
-        <v>5.3501588251843941</v>
+        <v>5.3501588631987715</v>
       </c>
       <c r="AB3">
-        <v>10.137092122425855</v>
+        <v>10.137092145376641</v>
       </c>
       <c r="AC3">
-        <v>-0.84772713784258258</v>
+        <v>-0.84772710694981868</v>
       </c>
       <c r="AD3">
-        <v>12.903747959308149</v>
+        <v>12.903748011926936</v>
       </c>
       <c r="AE3">
-        <v>1.4343793718830042</v>
+        <v>1.4343793704779912</v>
       </c>
       <c r="AF3">
-        <v>2.4221222596981775</v>
+        <v>2.4221222869461485</v>
       </c>
       <c r="AG3">
-        <v>-6.0056195227159463</v>
+        <v>-6.0056194891748618</v>
       </c>
       <c r="AH3">
-        <v>-9.4175426605030239</v>
+        <v>-9.4175426547309229</v>
       </c>
       <c r="AI3">
-        <v>9.6245338035600412</v>
+        <v>9.6245338547392691</v>
       </c>
       <c r="AJ3">
-        <v>-4.0188616921327878</v>
+        <v>-4.018861643732933</v>
       </c>
       <c r="AK3">
-        <v>-13.549169688912144</v>
+        <v>-13.549169646516162</v>
       </c>
       <c r="AL3">
-        <v>-5.8806365626358286</v>
+        <v>-5.8806365445530133</v>
       </c>
       <c r="AM3">
-        <v>4.0971707179601395</v>
+        <v>4.0971707614743451</v>
       </c>
       <c r="AN3">
-        <v>6.9050596703614175</v>
+        <v>6.9050596906665831</v>
       </c>
       <c r="AO3">
-        <v>0.96827720535486606</v>
+        <v>0.96827723363261242</v>
       </c>
       <c r="AP3">
-        <v>3.0404997945340639</v>
+        <v>3.0404998325203891</v>
       </c>
       <c r="AQ3">
-        <v>-0.91393450800111964</v>
+        <v>-0.91393450027820933</v>
       </c>
       <c r="AR3">
-        <v>4.0839715511091796</v>
+        <v>4.083971580221359</v>
       </c>
       <c r="AS3">
-        <v>6.9558086603458236</v>
+        <v>6.9558086870426052</v>
       </c>
       <c r="AT3">
-        <v>2.6969183001473738</v>
+        <v>2.696918322643981</v>
       </c>
       <c r="AU3">
-        <v>-5.4472010753409492</v>
+        <v>-5.4472010490865088</v>
       </c>
       <c r="AV3">
-        <v>-2.3476057394047984</v>
+        <v>-2.3476056723500704</v>
       </c>
       <c r="AW3">
-        <v>2.3716269678743238</v>
+        <v>2.3716269891774857</v>
       </c>
       <c r="AX3">
-        <v>3.4596657456577375</v>
+        <v>3.4596657718495862</v>
       </c>
       <c r="AY3">
-        <v>1.2634221328245587</v>
+        <v>1.2634221552774676</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_AT_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>23.666244518335589</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>13.754925909435919</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>26.713794273462135</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>11.373906610282347</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>62.567746443495736</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3.7396604652136318</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.7475524964188054</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3.0553326339051168</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.9429283008056331</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5.9836347603402515</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.3688628500563595</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>7.3310272878725726</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.2570876098364892</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-4.2598970428466103</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.450791318474565</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>7.690895051949262</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>4.397415285381463</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>7.4957732304134836</v>
+        <v>7.4957399004134828</v>
       </c>
       <c r="T2">
         <v>0.13515923369281069</v>
@@ -576,147 +465,144 @@
         <v>3.8682211484824833</v>
       </c>
       <c r="W2">
-        <v>-0.48008501485087862</v>
+        <v>-0.48011834485087945</v>
       </c>
       <c r="X2">
-        <v>-3.0157122767063349</v>
+        <v>-3.0156789467063341</v>
       </c>
       <c r="Y2">
         <v>-4.5062919598458109</v>
       </c>
       <c r="Z2">
-        <v>24.454555298210352</v>
+        <v>24.454588628210352</v>
       </c>
       <c r="AA2">
-        <v>-0.53801794371585032</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>11.026883144284724</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.2096289802584792</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>12.63944566860151</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>29.15808172450182</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>6.4988871391014555</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.180455411532165</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>5.1824613021519994</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>-1.0308439253581554</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>7.9370728516970956</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>6.5501457206925124</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.1483899932146784</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.6697238057405528</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.2431751824331556</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>4.7630911291719542</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5264489192239736</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.2655351508360368</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>3.8483074715271925</v>
+        <v>3.8483408015271934</v>
       </c>
       <c r="AS2">
         <v>-4.0984592347393374</v>
       </c>
       <c r="AT2">
-        <v>-2.7194468986156224</v>
+        <v>-2.7194802286156232</v>
       </c>
       <c r="AU2">
-        <v>-3.6293094871468412</v>
+        <v>-3.6292761571468404</v>
       </c>
       <c r="AV2">
-        <v>7.0502637668079444</v>
+        <v>7.0502304368079507</v>
       </c>
       <c r="AW2">
-        <v>-0.70917022162764454</v>
+        <v>-0.70913689162764371</v>
       </c>
       <c r="AX2">
-        <v>1.2723080127374971</v>
+        <v>1.2723413427374908</v>
       </c>
       <c r="AY2">
-        <v>-6.4315924051545323</v>
+        <v>-6.4315590751545315</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>18.510446526792059</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>8.2322455054952499</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-5.8711297697243836</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>12.539660391281757</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>12.062600113488372</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.7914802216237788</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.3626152877599367</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.1380019167812492</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>8.5319521343598268</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-8.8760622425083255</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-23.48911749890371</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.1951533758278927</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>4.170123674849286</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.6266888763321674</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.3736150640691562</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>7.8635261103209189</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>5.7215628364976894</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>6.7781489043690613</v>
@@ -728,94 +614,94 @@
         <v>2.8048651418220771</v>
       </c>
       <c r="V3">
-        <v>-17.378813198965467</v>
+        <v>-17.378779868965474</v>
       </c>
       <c r="W3">
-        <v>-0.79355167540528271</v>
+        <v>-0.79351834540528898</v>
       </c>
       <c r="X3">
-        <v>4.0557554502886113</v>
+        <v>4.0557221202886105</v>
       </c>
       <c r="Y3">
-        <v>3.2019931175709786</v>
+        <v>-22.828040212429023</v>
       </c>
       <c r="Z3">
-        <v>1.5653464126143888</v>
+        <v>-3.8780202573856144</v>
       </c>
       <c r="AA3">
-        <v>5.3501588631987715</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>10.137092145376641</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-0.84772710694981868</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>12.903748011926936</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.4343793704779912</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.4221222869461485</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-6.0056194891748618</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>-9.4175426547309229</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>9.6245338547392691</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-4.018861643732933</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>-13.549169646516162</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-5.8806365445530133</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>4.0971707614743451</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>6.9050596906665831</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.96827723363261242</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>3.0404998325203891</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-0.91393450027820933</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>4.083971580221359</v>
+        <v>4.0839382502213653</v>
       </c>
       <c r="AS3">
-        <v>6.9558086870426052</v>
+        <v>6.9558420170426132</v>
       </c>
       <c r="AT3">
         <v>2.696918322643981</v>
       </c>
       <c r="AU3">
-        <v>-5.4472010490865088</v>
+        <v>-5.447167719086508</v>
       </c>
       <c r="AV3">
-        <v>-2.3476056723500704</v>
+        <v>-2.3475723423500625</v>
       </c>
       <c r="AW3">
         <v>2.3716269891774857</v>
       </c>
       <c r="AX3">
-        <v>3.4596657718495862</v>
+        <v>-0.71363422815041844</v>
       </c>
       <c r="AY3">
-        <v>1.2634221552774676</v>
+        <v>-41.15654451472254</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_AT_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>23.666211150588929</v>
+        <v>-4.2598637128466095</v>
       </c>
       <c r="C2">
-        <v>7.4482592439937747</v>
+        <v>4.397415285381463</v>
       </c>
       <c r="D2">
-        <v>26.713827566956063</v>
+        <v>1.2431418524331619</v>
       </c>
       <c r="E2">
-        <v>11.373873241522205</v>
+        <v>1.265501820836036</v>
       </c>
       <c r="F2">
         <v>62.567746427366387</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18.510446543156078</v>
+        <v>3.6266888763321674</v>
       </c>
       <c r="C3">
-        <v>0.34554547300645311</v>
+        <v>5.7215295064976885</v>
       </c>
       <c r="D3">
-        <v>-5.8711631158057287</v>
+        <v>6.9050263606665823</v>
       </c>
       <c r="E3">
-        <v>12.539693711943102</v>
+        <v>-0.94244729809990702</v>
       </c>
       <c r="F3">
         <v>12.062600098180276</v>

--- a/data_output/prism_passive/all_passive_out_elong_AT_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>23.666211150588929</v>
+        <v>22.238109643292994</v>
       </c>
       <c r="C2">
-        <v>7.4482592439937747</v>
+        <v>-2.5972647720588284</v>
       </c>
       <c r="D2">
-        <v>26.713827566956063</v>
+        <v>0.39925577643444399</v>
       </c>
       <c r="E2">
-        <v>11.373873241522205</v>
+        <v>3.3322129417138484</v>
       </c>
       <c r="F2">
         <v>62.567746427366387</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18.510446543156078</v>
+        <v>19.973490344849282</v>
       </c>
       <c r="C3">
-        <v>0.34554547300645311</v>
+        <v>3.6266888763321674</v>
       </c>
       <c r="D3">
-        <v>-5.8711631158057287</v>
+        <v>-13.012829238525661</v>
       </c>
       <c r="E3">
-        <v>12.539693711943102</v>
+        <v>6.9050263606665823</v>
       </c>
       <c r="F3">
         <v>12.062600098180276</v>

--- a/data_output/prism_passive/all_passive_out_elong_AT_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>24.857069592989184</v>
+      </c>
+      <c r="C2">
+        <v>7.4482592394359202</v>
+      </c>
+      <c r="D2">
+        <v>35.110454761145554</v>
+      </c>
+      <c r="E2">
+        <v>20.748195560975816</v>
+      </c>
+      <c r="F2">
+        <v>62.567746443495736</v>
+      </c>
+      <c r="G2">
+        <v>3.739627135213631</v>
+      </c>
+      <c r="H2">
+        <v>4.4939758486192289</v>
+      </c>
+      <c r="I2">
+        <v>6.707988218708131</v>
+      </c>
+      <c r="J2">
+        <v>9.7634646201565687</v>
+      </c>
+      <c r="K2">
+        <v>-10.159078992550519</v>
+      </c>
+      <c r="L2">
+        <v>8.398907020866389</v>
+      </c>
+      <c r="M2">
+        <v>7.3310272878725726</v>
+      </c>
+      <c r="N2">
         <v>22.238109643292994</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>-2.5972647720588284</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>14.450791318474565</v>
+      </c>
+      <c r="Q2">
+        <v>-17.65247161805074</v>
+      </c>
+      <c r="R2">
+        <v>4.397415285381463</v>
+      </c>
+      <c r="S2">
+        <v>9.4857159522114003</v>
+      </c>
+      <c r="T2">
+        <v>0.13515923369281069</v>
+      </c>
+      <c r="U2">
+        <v>-10.92383659249225</v>
+      </c>
+      <c r="V2">
+        <v>9.7525780746308115</v>
+      </c>
+      <c r="W2">
+        <v>7.3106201750579629</v>
+      </c>
+      <c r="X2">
+        <v>0.61608758858684354</v>
+      </c>
+      <c r="Y2">
+        <v>-3.8687453099319526</v>
+      </c>
+      <c r="Z2">
+        <v>24.454588628210352</v>
+      </c>
+      <c r="AA2">
+        <v>0.51782580356393026</v>
+      </c>
+      <c r="AB2">
+        <v>20.486916474284726</v>
+      </c>
+      <c r="AC2">
+        <v>9.9339572908752416</v>
+      </c>
+      <c r="AD2">
+        <v>22.412220284286008</v>
+      </c>
+      <c r="AE2">
+        <v>29.15808172450182</v>
+      </c>
+      <c r="AF2">
+        <v>6.4989204691014564</v>
+      </c>
+      <c r="AG2">
+        <v>3.0154562616102112</v>
+      </c>
+      <c r="AH2">
+        <v>9.4389193921910604</v>
+      </c>
+      <c r="AI2">
+        <v>-0.2604231461502593</v>
+      </c>
+      <c r="AJ2">
+        <v>10.408440950343888</v>
+      </c>
+      <c r="AK2">
+        <v>12.438536943906968</v>
+      </c>
+      <c r="AL2">
+        <v>1.1484233232146792</v>
+      </c>
+      <c r="AM2">
         <v>0.39925577643444399</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>3.3322129417138484</v>
       </c>
-      <c r="F2">
-        <v>62.567746427366387</v>
-      </c>
-      <c r="G2">
-        <v>3.7396271289330585</v>
-      </c>
-      <c r="H2">
-        <v>3.7475524582049218</v>
-      </c>
-      <c r="I2">
-        <v>3.0553659398671797</v>
-      </c>
-      <c r="J2">
-        <v>8.9428949851849069</v>
-      </c>
-      <c r="K2">
-        <v>-15.059698579352528</v>
-      </c>
-      <c r="L2">
-        <v>3.368829462883383</v>
-      </c>
-      <c r="M2">
-        <v>7.3310272454807546</v>
-      </c>
-      <c r="N2">
-        <v>20.643720880723016</v>
-      </c>
-      <c r="O2">
-        <v>-4.2598637481617558</v>
-      </c>
-      <c r="P2">
-        <v>14.450791332821318</v>
-      </c>
-      <c r="Q2">
-        <v>-17.652471630817708</v>
-      </c>
-      <c r="R2">
-        <v>4.3974152718439186</v>
-      </c>
-      <c r="S2">
-        <v>7.4957398907415538</v>
-      </c>
-      <c r="T2">
-        <v>0.13515920172635276</v>
-      </c>
-      <c r="U2">
-        <v>-12.05419148610828</v>
-      </c>
-      <c r="V2">
-        <v>3.8682211373223438</v>
-      </c>
-      <c r="W2">
-        <v>-0.4473043130316583</v>
-      </c>
-      <c r="X2">
-        <v>-3.0156789631479306</v>
-      </c>
-      <c r="Y2">
-        <v>-4.5062919988520065</v>
-      </c>
-      <c r="Z2">
-        <v>24.454588603873141</v>
-      </c>
-      <c r="AA2">
-        <v>-0.53805133750844902</v>
-      </c>
-      <c r="AB2">
-        <v>20.486916474171757</v>
-      </c>
-      <c r="AC2">
-        <v>1.209662305286848</v>
-      </c>
-      <c r="AD2">
-        <v>12.639478952792828</v>
-      </c>
-      <c r="AE2">
-        <v>29.158081722216771</v>
-      </c>
-      <c r="AF2">
-        <v>6.4989204690409892</v>
-      </c>
-      <c r="AG2">
-        <v>2.1804220543143344</v>
-      </c>
-      <c r="AH2">
-        <v>5.1824946202043947</v>
-      </c>
-      <c r="AI2">
-        <v>-1.030843934078348</v>
-      </c>
-      <c r="AJ2">
-        <v>6.1471061537465062</v>
-      </c>
-      <c r="AK2">
-        <v>6.5501456693960165</v>
-      </c>
-      <c r="AL2">
-        <v>1.1484232850648013</v>
-      </c>
-      <c r="AM2">
-        <v>-1.5502762504855525</v>
-      </c>
-      <c r="AN2">
-        <v>1.2431418145939617</v>
-      </c>
       <c r="AO2">
-        <v>4.7631244233594714</v>
+        <v>4.763124459171955</v>
       </c>
       <c r="AP2">
-        <v>1.5264489033982862</v>
+        <v>1.5264489192239736</v>
       </c>
       <c r="AQ2">
-        <v>1.2655017845228684</v>
+        <v>1.265501820836036</v>
       </c>
       <c r="AR2">
-        <v>3.8483407895205133</v>
+        <v>6.5290201969682826</v>
       </c>
       <c r="AS2">
-        <v>-4.0984592527667019</v>
+        <v>-4.0984592347393374</v>
       </c>
       <c r="AT2">
-        <v>-2.7194802435775145</v>
+        <v>-1.6253244720665663</v>
       </c>
       <c r="AU2">
-        <v>-3.6292761663827804</v>
+        <v>3.2660077424657885</v>
       </c>
       <c r="AV2">
-        <v>7.0856390817679369</v>
+        <v>14.927460575457616</v>
       </c>
       <c r="AW2">
-        <v>-0.70913689916516631</v>
+        <v>3.2878646627863048</v>
       </c>
       <c r="AX2">
-        <v>1.2723413148078393</v>
+        <v>1.7866903413382289</v>
       </c>
       <c r="AY2">
-        <v>-6.4315590901475161</v>
+        <v>-6.4315590751545315</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>18.510446526792059</v>
+      </c>
+      <c r="C3">
+        <v>6.1067007610490549</v>
+      </c>
+      <c r="D3">
+        <v>-5.8711630997243844</v>
+      </c>
+      <c r="E3">
+        <v>12.539693721281751</v>
+      </c>
+      <c r="F3">
+        <v>15.259000778258226</v>
+      </c>
+      <c r="G3">
+        <v>4.2347203112882355</v>
+      </c>
+      <c r="H3">
+        <v>3.3626486177599304</v>
+      </c>
+      <c r="I3">
+        <v>2.13803524678125</v>
+      </c>
+      <c r="J3">
+        <v>-4.2280478656401783</v>
+      </c>
+      <c r="K3">
+        <v>-8.8760622425083255</v>
+      </c>
+      <c r="L3">
+        <v>-23.48911749890371</v>
+      </c>
+      <c r="M3">
+        <v>13.542254261423771</v>
+      </c>
+      <c r="N3">
         <v>19.973490344849282</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>3.6266888763321674</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>2.772312784206548</v>
+      </c>
+      <c r="Q3">
+        <v>8.760500796244088</v>
+      </c>
+      <c r="R3">
+        <v>9.7610179086935531</v>
+      </c>
+      <c r="S3">
+        <v>6.7781489043690613</v>
+      </c>
+      <c r="T3">
+        <v>5.675905624947049</v>
+      </c>
+      <c r="U3">
+        <v>2.8048651418220771</v>
+      </c>
+      <c r="V3">
+        <v>-17.378779868965474</v>
+      </c>
+      <c r="W3">
+        <v>-0.78979241829887314</v>
+      </c>
+      <c r="X3">
+        <v>4.0557221202886105</v>
+      </c>
+      <c r="Y3">
+        <v>-22.828040212429023</v>
+      </c>
+      <c r="Z3">
+        <v>-3.7235543942518419</v>
+      </c>
+      <c r="AA3">
+        <v>5.3501921931987724</v>
+      </c>
+      <c r="AB3">
+        <v>16.083959967845928</v>
+      </c>
+      <c r="AC3">
+        <v>-0.84776043694981951</v>
+      </c>
+      <c r="AD3">
+        <v>12.903781341926937</v>
+      </c>
+      <c r="AE3">
+        <v>5.3369437143094274</v>
+      </c>
+      <c r="AF3">
+        <v>5.0331343339510042</v>
+      </c>
+      <c r="AG3">
+        <v>-6.0056194891748618</v>
+      </c>
+      <c r="AH3">
+        <v>-9.4157189307021909</v>
+      </c>
+      <c r="AI3">
+        <v>6.6845671847392794</v>
+      </c>
+      <c r="AJ3">
+        <v>-4.018861643732933</v>
+      </c>
+      <c r="AK3">
+        <v>-13.54920297651617</v>
+      </c>
+      <c r="AL3">
+        <v>-1.8291757206268997</v>
+      </c>
+      <c r="AM3">
         <v>-13.012829238525661</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>6.9050263606665823</v>
       </c>
-      <c r="F3">
-        <v>12.062600098180276</v>
-      </c>
-      <c r="G3">
-        <v>1.7915135324351326</v>
-      </c>
-      <c r="H3">
-        <v>3.3626485795282548</v>
-      </c>
-      <c r="I3">
-        <v>2.1380352324784084</v>
-      </c>
-      <c r="J3">
-        <v>-4.2280478722183119</v>
-      </c>
-      <c r="K3">
-        <v>-8.8760622782551337</v>
-      </c>
-      <c r="L3">
-        <v>-23.489117544561978</v>
-      </c>
-      <c r="M3">
-        <v>9.1949736694437121</v>
-      </c>
-      <c r="N3">
-        <v>19.973490306007847</v>
-      </c>
-      <c r="O3">
-        <v>3.6266888498960697</v>
-      </c>
-      <c r="P3">
-        <v>1.3736150287895796</v>
-      </c>
-      <c r="Q3">
-        <v>7.8635594185906683</v>
-      </c>
-      <c r="R3">
-        <v>5.7215294898133493</v>
-      </c>
-      <c r="S3">
-        <v>6.7781488883723</v>
-      </c>
-      <c r="T3">
-        <v>4.8674758398926485</v>
-      </c>
-      <c r="U3">
-        <v>2.8048651143348025</v>
-      </c>
-      <c r="V3">
-        <v>-17.378779888398256</v>
-      </c>
-      <c r="W3">
-        <v>-0.78979248419973658</v>
-      </c>
-      <c r="X3">
-        <v>4.055722061968428</v>
-      </c>
-      <c r="Y3">
-        <v>-22.828040229999658</v>
-      </c>
-      <c r="Z3">
-        <v>-3.8780202762134337</v>
-      </c>
-      <c r="AA3">
-        <v>5.3501921551843949</v>
-      </c>
-      <c r="AB3">
-        <v>9.6671254524258501</v>
-      </c>
-      <c r="AC3">
-        <v>-0.84776046784258341</v>
-      </c>
-      <c r="AD3">
-        <v>12.903781289308149</v>
-      </c>
-      <c r="AE3">
-        <v>1.4344127018830051</v>
-      </c>
-      <c r="AF3">
-        <v>2.4221222596981775</v>
-      </c>
-      <c r="AG3">
-        <v>-6.0056195227159463</v>
-      </c>
-      <c r="AH3">
-        <v>-9.4157189262176431</v>
-      </c>
-      <c r="AI3">
-        <v>6.6845671335600514</v>
-      </c>
-      <c r="AJ3">
-        <v>-4.0188616921327878</v>
-      </c>
-      <c r="AK3">
-        <v>-13.549203018912152</v>
-      </c>
-      <c r="AL3">
-        <v>-5.8806365626358286</v>
-      </c>
-      <c r="AM3">
-        <v>-13.012829282039867</v>
-      </c>
-      <c r="AN3">
-        <v>6.9050263403614167</v>
-      </c>
       <c r="AO3">
-        <v>0.96824387535486522</v>
+        <v>2.2534497882008822</v>
       </c>
       <c r="AP3">
-        <v>3.0405331245340648</v>
+        <v>3.9706314847567796</v>
       </c>
       <c r="AQ3">
-        <v>-0.94244730023297052</v>
+        <v>4.0304374520007684</v>
       </c>
       <c r="AR3">
-        <v>4.0839382211091859</v>
+        <v>4.0839382502213653</v>
       </c>
       <c r="AS3">
-        <v>6.9558419903458315</v>
+        <v>8.1288259894300552</v>
       </c>
       <c r="AT3">
-        <v>2.6969183001473738</v>
+        <v>2.696918322643981</v>
       </c>
       <c r="AU3">
-        <v>-5.4471677453409484</v>
+        <v>-5.447167719086508</v>
       </c>
       <c r="AV3">
-        <v>-2.3354511301691048</v>
+        <v>-2.3354510624332931</v>
       </c>
       <c r="AW3">
-        <v>2.3716269678743238</v>
+        <v>2.3716269891774857</v>
       </c>
       <c r="AX3">
-        <v>-0.71363425434226713</v>
+        <v>-0.71363422815041844</v>
       </c>
       <c r="AY3">
-        <v>-41.156544537175449</v>
+        <v>-41.03447288372714</v>
       </c>
     </row>
   </sheetData>
